--- a/cypress/fixtures/ReportingData.xlsx
+++ b/cypress/fixtures/ReportingData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Email</t>
   </si>
@@ -27,12 +27,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>dfhtestuser@gmail.com</t>
-  </si>
-  <si>
-    <t>dfh@88741</t>
-  </si>
-  <si>
     <t>Option1</t>
   </si>
   <si>
@@ -57,23 +51,23 @@
     <t>Option8</t>
   </si>
   <si>
-    <t>precious.reindeer.bxff@flashpost.net</t>
-  </si>
-  <si>
-    <t>p@sS1234</t>
-  </si>
-  <si>
-    <t>pleased.aardwolf.zfwv@flashpost.net</t>
-  </si>
-  <si>
-    <t>akdnhakdnasd</t>
+    <t>KE#S3bF%9gau</t>
+  </si>
+  <si>
+    <t>rM{5Q#d&amp;T4FB</t>
+  </si>
+  <si>
+    <t>rizwikhattak77@gmail.com</t>
+  </si>
+  <si>
+    <t>shakeebqau@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +91,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F4350"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,7 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -132,6 +132,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -417,7 +420,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,57 +437,57 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="3" t="b">
         <v>0</v>
@@ -492,41 +495,43 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -535,13 +540,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>